--- a/biology/Botanique/Acosmium/Acosmium.xlsx
+++ b/biology/Botanique/Acosmium/Acosmium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acosmium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud, qui comprend 18 espèces acceptées. La plupart des espèces sont originaires du Brésil[2]. 
-Certaines de ces espèces, notamment Acosmium dasycarpum, Acosmium panamense et Acosmium subelegans, sont utilisés au Brésil en médecine traditionnelle pour traiter différentes maladies. On leur attribue une activité cytotoxique, des effets antithermaux et hypoglycémiques, et on les  utilise pour traiter la maladie d'Alzheimer et les troubles du système nerveux central. Les recherches phytochimiques ont permis d'isoler diverses substances dans ces plantes, principalement des terpènes, de l'acide caféique, des alcaloïdes à diaza-adamantane et à quinolizidine ainsi que des pyrones[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acosmium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud, qui comprend 18 espèces acceptées. La plupart des espèces sont originaires du Brésil. 
+Certaines de ces espèces, notamment Acosmium dasycarpum, Acosmium panamense et Acosmium subelegans, sont utilisés au Brésil en médecine traditionnelle pour traiter différentes maladies. On leur attribue une activité cytotoxique, des effets antithermaux et hypoglycémiques, et on les  utilise pour traiter la maladie d'Alzheimer et les troubles du système nerveux central. Les recherches phytochimiques ont permis d'isoler diverses substances dans ces plantes, principalement des terpènes, de l'acide caféique, des alcaloïdes à diaza-adamantane et à quinolizidine ainsi que des pyrones.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (17 septembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (17 septembre 2018) :
 Acosmium bijugum (Vogel) Yakovlev
 Acosmium brachystachyum (Benth.) Yakovlev
 Acosmium cardenasii H.S.Irwin &amp; Arroyo
